--- a/Data/EC/NIT-9008560481.xlsx
+++ b/Data/EC/NIT-9008560481.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DEF726-B9BC-4904-80B5-4C499D978E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4277BCF-AF9B-4893-B5E3-5641D62B916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BFA93C92-FC6C-4FA9-A346-616E043577A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{50151CCE-947D-438D-9C4C-7079E5836DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,28 +71,28 @@
     <t>LIBARDO ANTONIO RUIZ CORRALES</t>
   </si>
   <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -191,22 +191,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,23 +406,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,10 +450,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D5DAED-53E2-8431-B02E-B0ABE00F3608}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD57CF7-5226-7F97-ED3B-79BC45679F8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDFB1F-9485-43AF-A5BD-A738E8950396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D9BE4E-FEB1-44AA-9DFB-01E06877A2CB}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,10 +1035,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26650</v>
+        <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1061,7 +1061,7 @@
         <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,7 +1084,7 @@
         <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1107,7 +1107,7 @@
         <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,7 +1130,7 @@
         <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1153,7 +1153,7 @@
         <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,7 +1176,7 @@
         <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,10 +1196,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="24">
-        <v>36341</v>
+        <v>26650</v>
       </c>
       <c r="G23" s="24">
-        <v>689455</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
